--- a/data/trans_orig/P16A11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Estudios-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1661,7 +1661,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2768,7 +2768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3875,7 +3875,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>262018</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>233894</v>
+        <v>235130</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>288811</v>
+        <v>292819</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2539614059930037</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2267023651233538</v>
+        <v>0.227899963187818</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2799303756745994</v>
+        <v>0.2838150844595014</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>429</v>
@@ -765,19 +765,19 @@
         <v>440224</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>407282</v>
+        <v>405220</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>473243</v>
+        <v>476036</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3347422817630302</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3096931683457309</v>
+        <v>0.3081256865285373</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3598495357053044</v>
+        <v>0.3619735337115633</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>701</v>
@@ -786,19 +786,19 @@
         <v>702241</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>665388</v>
+        <v>655558</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>750869</v>
+        <v>745110</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2992291511838499</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2835255317091958</v>
+        <v>0.2793372556316759</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3199497515862874</v>
+        <v>0.3174957807252388</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>769705</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>742912</v>
+        <v>738904</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>797829</v>
+        <v>796593</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7460385940069963</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7200696243254007</v>
+        <v>0.7161849155404987</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7732976348766462</v>
+        <v>0.7721000368121816</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>862</v>
@@ -836,19 +836,19 @@
         <v>874889</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>841870</v>
+        <v>839077</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>907831</v>
+        <v>909893</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6652577182369698</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6401504642946958</v>
+        <v>0.6380264662884368</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6903068316542694</v>
+        <v>0.6918743134714627</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1628</v>
@@ -857,19 +857,19 @@
         <v>1644594</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1595966</v>
+        <v>1601725</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1681447</v>
+        <v>1691277</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.70077084881615</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6800502484137123</v>
+        <v>0.682504219274761</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7164744682908042</v>
+        <v>0.720662744368324</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>108341</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>89491</v>
+        <v>88944</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>128214</v>
+        <v>128544</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06401631482663923</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05287848030155774</v>
+        <v>0.05255524792236226</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07575893316428749</v>
+        <v>0.07595410364417124</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>91</v>
@@ -982,19 +982,19 @@
         <v>95125</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>78288</v>
+        <v>77748</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>115274</v>
+        <v>113540</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05991465280068206</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04931021006289803</v>
+        <v>0.04896966543547089</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07260533066882857</v>
+        <v>0.07151328646525393</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>199</v>
@@ -1003,19 +1003,19 @@
         <v>203466</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>176302</v>
+        <v>180190</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>231716</v>
+        <v>233613</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06203095983393665</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05374937069378571</v>
+        <v>0.05493495419986866</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07064361700041738</v>
+        <v>0.07122215881870718</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1584053</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1564180</v>
+        <v>1563850</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1602903</v>
+        <v>1603450</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9359836851733607</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9242410668357125</v>
+        <v>0.9240458963558289</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9471215196984422</v>
+        <v>0.9474447520776378</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1463</v>
@@ -1053,19 +1053,19 @@
         <v>1492548</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1472399</v>
+        <v>1474133</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1509385</v>
+        <v>1509925</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9400853471993179</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9273946693311707</v>
+        <v>0.9284867135347458</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.950689789937102</v>
+        <v>0.951030334564529</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3003</v>
@@ -1074,19 +1074,19 @@
         <v>3076601</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3048351</v>
+        <v>3046454</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3103765</v>
+        <v>3099877</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9379690401660633</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9293563829995826</v>
+        <v>0.9287778411812929</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9462506293062142</v>
+        <v>0.9450650458001315</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>43204</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31889</v>
+        <v>31435</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57788</v>
+        <v>58656</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07835127904163834</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05783212575681848</v>
+        <v>0.05700869706456173</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1048002356445991</v>
+        <v>0.1063757047486281</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -1199,19 +1199,19 @@
         <v>28035</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19402</v>
+        <v>19485</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39827</v>
+        <v>39120</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05884654839152573</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04072487843941541</v>
+        <v>0.04090033848175605</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08359819184382034</v>
+        <v>0.08211402761526823</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>68</v>
@@ -1220,19 +1220,19 @@
         <v>71239</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55050</v>
+        <v>55299</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>88652</v>
+        <v>87022</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06931050875290781</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05356033461306484</v>
+        <v>0.05380175278403045</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0862528673541665</v>
+        <v>0.0846666469779243</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>508204</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>493620</v>
+        <v>492752</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>519519</v>
+        <v>519973</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9216487209583617</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8951997643554009</v>
+        <v>0.893624295251372</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9421678742431819</v>
+        <v>0.9429913029354383</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>424</v>
@@ -1270,19 +1270,19 @@
         <v>448377</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>436585</v>
+        <v>437292</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>457010</v>
+        <v>456927</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9411534516084743</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9164018081561796</v>
+        <v>0.9178859723847316</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9592751215605846</v>
+        <v>0.959099661518244</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>911</v>
@@ -1291,19 +1291,19 @@
         <v>956581</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>939168</v>
+        <v>940798</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>972770</v>
+        <v>972521</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9306894912470922</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9137471326458335</v>
+        <v>0.9153333530220756</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9464396653869352</v>
+        <v>0.9461982472159693</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>413562</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>377088</v>
+        <v>379797</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>450887</v>
+        <v>451768</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1262582732633914</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1151228848342048</v>
+        <v>0.1159498670397022</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1376532844291844</v>
+        <v>0.1379222289862497</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>548</v>
@@ -1416,19 +1416,19 @@
         <v>563384</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>523897</v>
+        <v>522641</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>608229</v>
+        <v>603517</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1667212087860317</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1550358272172512</v>
+        <v>0.1546642785561884</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.17999211453439</v>
+        <v>0.1785978354055831</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>968</v>
@@ -1437,19 +1437,19 @@
         <v>976946</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>916787</v>
+        <v>918769</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1038120</v>
+        <v>1039995</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.146804921696733</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1377649402942889</v>
+        <v>0.1380627711976847</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1559975467166324</v>
+        <v>0.1562792237040837</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2861963</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2824638</v>
+        <v>2823757</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2898437</v>
+        <v>2895728</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8737417267366087</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8623467155708157</v>
+        <v>0.8620777710137504</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8848771151657956</v>
+        <v>0.884050132960298</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2749</v>
@@ -1487,19 +1487,19 @@
         <v>2815813</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2770968</v>
+        <v>2775680</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2855300</v>
+        <v>2856556</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8332787912139683</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8200078854656099</v>
+        <v>0.8214021645944166</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8449641727827484</v>
+        <v>0.8453357214438114</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5542</v>
@@ -1508,19 +1508,19 @@
         <v>5677776</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5616602</v>
+        <v>5614727</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5737935</v>
+        <v>5735953</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.853195078303267</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.844002453283368</v>
+        <v>0.8437207762959157</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8622350597057111</v>
+        <v>0.8619372288023152</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>338371</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>306170</v>
+        <v>307900</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>369507</v>
+        <v>371228</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3471744563948587</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.314135989641592</v>
+        <v>0.315910389343354</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3791200620003385</v>
+        <v>0.3808861526104578</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>534</v>
@@ -1872,19 +1872,19 @@
         <v>566765</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>531482</v>
+        <v>531548</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>607143</v>
+        <v>602944</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4246794103198146</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3982418902266568</v>
+        <v>0.3982916442701557</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4549349789053677</v>
+        <v>0.4517888630814211</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>845</v>
@@ -1893,19 +1893,19 @@
         <v>905136</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>858688</v>
+        <v>858546</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>951224</v>
+        <v>956338</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3919671235171107</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3718529033917234</v>
+        <v>0.3717912503340962</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4119256388699035</v>
+        <v>0.4141401608784447</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>636272</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>605136</v>
+        <v>603415</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>668473</v>
+        <v>666743</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6528255436051413</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6208799379996615</v>
+        <v>0.6191138473895421</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6858640103584082</v>
+        <v>0.684089610656646</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>710</v>
@@ -1943,19 +1943,19 @@
         <v>767806</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>727428</v>
+        <v>731627</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>803089</v>
+        <v>803023</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5753205896801854</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5450650210946323</v>
+        <v>0.5482111369185788</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6017581097733432</v>
+        <v>0.6017083557298439</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1307</v>
@@ -1964,19 +1964,19 @@
         <v>1404078</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1357990</v>
+        <v>1352876</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1450526</v>
+        <v>1450668</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6080328764828894</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5880743611300959</v>
+        <v>0.5858598391215553</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6281470966082763</v>
+        <v>0.6282087496659038</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>183774</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>157227</v>
+        <v>158513</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>212036</v>
+        <v>213009</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09376129874050954</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08021712272963134</v>
+        <v>0.08087328048639041</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1081806218152421</v>
+        <v>0.1086770929085459</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>131</v>
@@ -2089,19 +2089,19 @@
         <v>145071</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>124069</v>
+        <v>121386</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>170627</v>
+        <v>169306</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08286329712186842</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07086699544976811</v>
+        <v>0.06933468594068702</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09746079136581373</v>
+        <v>0.09670613882421467</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>298</v>
@@ -2110,19 +2110,19 @@
         <v>328845</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>296637</v>
+        <v>294425</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>368529</v>
+        <v>366640</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08861963964805528</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07994008174925807</v>
+        <v>0.07934395770745953</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0993140911868062</v>
+        <v>0.0988050394602224</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1776248</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1747986</v>
+        <v>1747013</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1802795</v>
+        <v>1801509</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9062387012594905</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.891819378184758</v>
+        <v>0.8913229070914538</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9197828772703686</v>
+        <v>0.9191267195136095</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1498</v>
@@ -2160,19 +2160,19 @@
         <v>1605653</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1580097</v>
+        <v>1581418</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1626655</v>
+        <v>1629338</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9171367028781315</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9025392086341862</v>
+        <v>0.9032938611757853</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9291330045502318</v>
+        <v>0.9306653140593129</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3183</v>
@@ -2181,19 +2181,19 @@
         <v>3381901</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3342217</v>
+        <v>3344106</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3414109</v>
+        <v>3416321</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9113803603519447</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9006859088131941</v>
+        <v>0.9011949605397779</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.920059918250742</v>
+        <v>0.9206560422925406</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>45874</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32690</v>
+        <v>33196</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60380</v>
+        <v>62534</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09550418692326978</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06805756159345892</v>
+        <v>0.06910981689404189</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1257054296192437</v>
+        <v>0.1301894177311576</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -2306,19 +2306,19 @@
         <v>29705</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18573</v>
+        <v>20296</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44288</v>
+        <v>45141</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06490724270537948</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04058402171643652</v>
+        <v>0.04434860393000951</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09677228239604357</v>
+        <v>0.09863554176040702</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -2327,19 +2327,19 @@
         <v>75579</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59086</v>
+        <v>58896</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>96334</v>
+        <v>96925</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08057558439371885</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06299197712386136</v>
+        <v>0.06278937148560736</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1027034584079711</v>
+        <v>0.1033326523713764</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>434458</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>419952</v>
+        <v>417798</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>447642</v>
+        <v>447136</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9044958130767302</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8742945703807562</v>
+        <v>0.8698105822688427</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9319424384065411</v>
+        <v>0.9308901831059581</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>388</v>
@@ -2377,19 +2377,19 @@
         <v>427949</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>413366</v>
+        <v>412513</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>439081</v>
+        <v>437358</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9350927572946205</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9032277176039565</v>
+        <v>0.9013644582395927</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9594159782835635</v>
+        <v>0.9556513960699904</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>786</v>
@@ -2398,19 +2398,19 @@
         <v>862407</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>841652</v>
+        <v>841061</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>878900</v>
+        <v>879090</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9194244156062812</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.897296541592029</v>
+        <v>0.8966673476286238</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9370080228761387</v>
+        <v>0.9372106285143927</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>568019</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>523702</v>
+        <v>517801</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>616086</v>
+        <v>610816</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1663307701614805</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1533534646555079</v>
+        <v>0.1516256553402353</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1804058717891171</v>
+        <v>0.1788628117439575</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>688</v>
@@ -2523,19 +2523,19 @@
         <v>741541</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>690178</v>
+        <v>694734</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>791198</v>
+        <v>794475</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2093003811987651</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1948031889985862</v>
+        <v>0.196089282776492</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2233161450131594</v>
+        <v>0.2242412023266747</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1205</v>
@@ -2544,19 +2544,19 @@
         <v>1309560</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1241901</v>
+        <v>1244826</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1373985</v>
+        <v>1378039</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1882106661690872</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1784867357794247</v>
+        <v>0.1789071404309277</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1974699050312736</v>
+        <v>0.1980526079840172</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2846978</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2798911</v>
+        <v>2804181</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2891295</v>
+        <v>2897196</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8336692298385195</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.819594128210883</v>
+        <v>0.8211371882560424</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8466465353444922</v>
+        <v>0.8483743446597645</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2596</v>
@@ -2594,19 +2594,19 @@
         <v>2801408</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2751751</v>
+        <v>2748474</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2852771</v>
+        <v>2848215</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.790699618801235</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7766838549868406</v>
+        <v>0.7757587976733253</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8051968110014137</v>
+        <v>0.8039107172235079</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5276</v>
@@ -2615,19 +2615,19 @@
         <v>5648386</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5583961</v>
+        <v>5579907</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5716045</v>
+        <v>5713120</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8117893338309128</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8025300949687265</v>
+        <v>0.8019473920159829</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8215132642205754</v>
+        <v>0.8210928595690724</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>230394</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>205826</v>
+        <v>207450</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>253003</v>
+        <v>258005</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3054222550417992</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2728537538936514</v>
+        <v>0.2750056480102189</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.335393004815477</v>
+        <v>0.3420246852678713</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>328</v>
@@ -2979,19 +2979,19 @@
         <v>384045</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>349842</v>
+        <v>351449</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>417432</v>
+        <v>415832</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3861066621265459</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3517197564004335</v>
+        <v>0.3533357565070613</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4196731841032236</v>
+        <v>0.4180649316192153</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>572</v>
@@ -3000,19 +3000,19 @@
         <v>614439</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>575261</v>
+        <v>572281</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>656229</v>
+        <v>653187</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3513074736592592</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3289071999078683</v>
+        <v>0.3272031331596653</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3752006328873511</v>
+        <v>0.3734614558606558</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>523953</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>501344</v>
+        <v>496342</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>548521</v>
+        <v>546897</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6945777449582008</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.664606995184523</v>
+        <v>0.657975314732129</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7271462461063486</v>
+        <v>0.7249943519897811</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>564</v>
@@ -3050,19 +3050,19 @@
         <v>610615</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>577228</v>
+        <v>578828</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>644818</v>
+        <v>643211</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6138933378734541</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5803268158967764</v>
+        <v>0.581935068380784</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6482802435995663</v>
+        <v>0.6466642434929383</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1082</v>
@@ -3071,19 +3071,19 @@
         <v>1134568</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1092778</v>
+        <v>1095820</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1173746</v>
+        <v>1176726</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6486925263407407</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6247993671126489</v>
+        <v>0.6265385441393431</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6710928000921317</v>
+        <v>0.6727968668403346</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>219934</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>192769</v>
+        <v>193448</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>248165</v>
+        <v>248775</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1059214833008916</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09283893623582612</v>
+        <v>0.09316568297995569</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1195177731336106</v>
+        <v>0.1198115171799689</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>185</v>
@@ -3196,19 +3196,19 @@
         <v>213097</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>184631</v>
+        <v>184643</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>243235</v>
+        <v>242292</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1071754397657352</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09285861329140063</v>
+        <v>0.09286489173539181</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1223331144428429</v>
+        <v>0.1218586993901599</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>393</v>
@@ -3217,19 +3217,19 @@
         <v>433031</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>393914</v>
+        <v>392717</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>475658</v>
+        <v>474972</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1065348744251056</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09691133727656823</v>
+        <v>0.0966167916205324</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1170221810809539</v>
+        <v>0.1168533184271426</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1856451</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1828220</v>
+        <v>1827610</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1883616</v>
+        <v>1882937</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8940785166991084</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8804822268663893</v>
+        <v>0.8801884828200311</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9071610637641738</v>
+        <v>0.9068343170200444</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1723</v>
@@ -3267,19 +3267,19 @@
         <v>1775203</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1745065</v>
+        <v>1746008</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1803669</v>
+        <v>1803657</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8928245602342648</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8776668855571569</v>
+        <v>0.8781413006098397</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9071413867085992</v>
+        <v>0.9071351082646081</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3467</v>
@@ -3288,19 +3288,19 @@
         <v>3631654</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3589027</v>
+        <v>3589713</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3670771</v>
+        <v>3671968</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8934651255748944</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8829778189190461</v>
+        <v>0.8831466815728575</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9030886627234319</v>
+        <v>0.9033832083794677</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>51307</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38317</v>
+        <v>37626</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68304</v>
+        <v>67493</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09381675272462148</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07006316480714</v>
+        <v>0.0687999480467156</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1248971316859353</v>
+        <v>0.1234133026585438</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -3413,19 +3413,19 @@
         <v>29926</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19168</v>
+        <v>18784</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45168</v>
+        <v>44618</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05449600189533806</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0349060515231167</v>
+        <v>0.03420551018888413</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08225219819934032</v>
+        <v>0.08125000975563258</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -3434,19 +3434,19 @@
         <v>81233</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63343</v>
+        <v>64382</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>101412</v>
+        <v>101405</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07411594279596601</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05779371542148071</v>
+        <v>0.05874082928385821</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09252663307683048</v>
+        <v>0.09252077493067627</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>495579</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>478582</v>
+        <v>479393</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>508569</v>
+        <v>509260</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9061832472753785</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8751028683140645</v>
+        <v>0.8765866973414562</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.92993683519286</v>
+        <v>0.9312000519532845</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>504</v>
@@ -3484,19 +3484,19 @@
         <v>519214</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>503972</v>
+        <v>504522</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>529972</v>
+        <v>530356</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9455039981046619</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9177478018006596</v>
+        <v>0.9187499902443677</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9650939484768832</v>
+        <v>0.9657944898111159</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>958</v>
@@ -3505,19 +3505,19 @@
         <v>1014794</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>994615</v>
+        <v>994622</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1032684</v>
+        <v>1031645</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.925884057204034</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9074733669231695</v>
+        <v>0.9074792250693237</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9422062845785194</v>
+        <v>0.9412591707161417</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>501635</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>456927</v>
+        <v>459100</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>543422</v>
+        <v>546646</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1485174368062423</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1352807605805444</v>
+        <v>0.1359242008710569</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1608890287168451</v>
+        <v>0.1618437155957723</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>535</v>
@@ -3630,19 +3630,19 @@
         <v>627068</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>575444</v>
+        <v>581396</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>673386</v>
+        <v>674726</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1775339617242208</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1629183328742281</v>
+        <v>0.164603385497204</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1906474953446864</v>
+        <v>0.1910268200855298</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1034</v>
@@ -3651,19 +3651,19 @@
         <v>1128703</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1064407</v>
+        <v>1069020</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1194400</v>
+        <v>1191976</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1633500648309989</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1540449009586903</v>
+        <v>0.1547124940303579</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1728579658032009</v>
+        <v>0.1725071582902708</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2875983</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2834196</v>
+        <v>2830972</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2920691</v>
+        <v>2918518</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8514825631937577</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8391109712831549</v>
+        <v>0.838156284404228</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8647192394194557</v>
+        <v>0.8640757991289431</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2791</v>
@@ -3701,19 +3701,19 @@
         <v>2905032</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2858714</v>
+        <v>2857374</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2956656</v>
+        <v>2950704</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8224660382757791</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8093525046553136</v>
+        <v>0.8089731799144702</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8370816671257719</v>
+        <v>0.835396614502796</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5507</v>
@@ -3722,19 +3722,19 @@
         <v>5781015</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5715318</v>
+        <v>5717742</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5845311</v>
+        <v>5840698</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8366499351690011</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8271420341967991</v>
+        <v>0.8274928417097293</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8459550990413096</v>
+        <v>0.845287505969642</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>203339</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>183093</v>
+        <v>184005</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>225980</v>
+        <v>226520</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3520758310081264</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3170202553220113</v>
+        <v>0.3185997900263057</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3912795232403643</v>
+        <v>0.3922138888683694</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>749</v>
@@ -4086,19 +4086,19 @@
         <v>400631</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>377093</v>
+        <v>377257</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>421079</v>
+        <v>421861</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4885053730369138</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4598045769107948</v>
+        <v>0.4600049713640998</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5134381124929271</v>
+        <v>0.5143919750734811</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1042</v>
@@ -4107,19 +4107,19 @@
         <v>603970</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>572089</v>
+        <v>572327</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>635906</v>
+        <v>633481</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4321297864819714</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4093197251014214</v>
+        <v>0.409489867895595</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4549798662334162</v>
+        <v>0.4532449841443257</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>374203</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>351562</v>
+        <v>351022</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>394449</v>
+        <v>393537</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6479241689918734</v>
+        <v>0.6479241689918736</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6087204767596358</v>
+        <v>0.6077861111316307</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6829797446779889</v>
+        <v>0.6814002099736943</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>675</v>
@@ -4157,19 +4157,19 @@
         <v>419485</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>399037</v>
+        <v>398255</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>443023</v>
+        <v>442859</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5114946269630862</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4865618875070728</v>
+        <v>0.4856080249265188</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5401954230892052</v>
+        <v>0.5399950286358998</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1072</v>
@@ -4178,19 +4178,19 @@
         <v>793688</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>761752</v>
+        <v>764177</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>825569</v>
+        <v>825331</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5678702135180287</v>
+        <v>0.5678702135180286</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5450201337665838</v>
+        <v>0.5467550158556742</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5906802748985786</v>
+        <v>0.5905101321044043</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>337529</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>306365</v>
+        <v>307213</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>370720</v>
+        <v>371256</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1513825759313211</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1374052520826932</v>
+        <v>0.1377856860849673</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1662688504132901</v>
+        <v>0.1665091358857194</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>509</v>
@@ -4303,19 +4303,19 @@
         <v>286480</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>262865</v>
+        <v>261054</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>314418</v>
+        <v>314336</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1319753521307349</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1210965045293619</v>
+        <v>0.120262420104335</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1448456799225072</v>
+        <v>0.1448079704991659</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>923</v>
@@ -4324,19 +4324,19 @@
         <v>624009</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>587115</v>
+        <v>586844</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>665894</v>
+        <v>668794</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1418089313704719</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1334246573542197</v>
+        <v>0.133363031585947</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1513275270792941</v>
+        <v>0.1519864943473008</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1892115</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1858924</v>
+        <v>1858388</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1923279</v>
+        <v>1922431</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8486174240686789</v>
+        <v>0.848617424068679</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8337311495867099</v>
+        <v>0.8334908641142805</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8625947479173069</v>
+        <v>0.8622143139150327</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2411</v>
@@ -4374,19 +4374,19 @@
         <v>1884227</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1856289</v>
+        <v>1856371</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1907842</v>
+        <v>1909653</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8680246478692651</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8551543200774928</v>
+        <v>0.8551920295008341</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.878903495470638</v>
+        <v>0.8797375798956651</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3988</v>
@@ -4395,19 +4395,19 @@
         <v>3776343</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3734458</v>
+        <v>3731558</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3813237</v>
+        <v>3813508</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.858191068629528</v>
+        <v>0.8581910686295283</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.848672472920706</v>
+        <v>0.8480135056526988</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8665753426457804</v>
+        <v>0.866636968414053</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>120157</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>102273</v>
+        <v>102265</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>140648</v>
+        <v>139114</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1688584685186115</v>
+        <v>0.1688584685186114</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1437256216704711</v>
+        <v>0.1437138099253278</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1976538486203926</v>
+        <v>0.1954975749829642</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>129</v>
@@ -4520,19 +4520,19 @@
         <v>78443</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66824</v>
+        <v>65778</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92697</v>
+        <v>92017</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1067425592859836</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09093206939508706</v>
+        <v>0.08950862092862309</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1261390981444807</v>
+        <v>0.125214356014139</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>278</v>
@@ -4541,19 +4541,19 @@
         <v>198600</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>176145</v>
+        <v>178741</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>223327</v>
+        <v>226498</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1373004341455164</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1217760632800442</v>
+        <v>0.1235707744636143</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.154395111395343</v>
+        <v>0.1565871948357012</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>591430</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>570939</v>
+        <v>572473</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>609314</v>
+        <v>609322</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8311415314813885</v>
+        <v>0.8311415314813884</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8023461513796071</v>
+        <v>0.8045024250170357</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8562743783295288</v>
+        <v>0.8562861900746722</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>875</v>
@@ -4591,19 +4591,19 @@
         <v>656434</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>642180</v>
+        <v>642860</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>668053</v>
+        <v>669099</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8932574407140164</v>
+        <v>0.8932574407140162</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8738609018555193</v>
+        <v>0.874785643985861</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9090679306049129</v>
+        <v>0.9104913790713769</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1407</v>
@@ -4612,19 +4612,19 @@
         <v>1247864</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1223137</v>
+        <v>1219966</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1270319</v>
+        <v>1267723</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8626995658544837</v>
+        <v>0.8626995658544836</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8456048886046568</v>
+        <v>0.8434128051642986</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8782239367199556</v>
+        <v>0.8764292255363858</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>661025</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>621532</v>
+        <v>616049</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>707121</v>
+        <v>708241</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1878567622034102</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1766332380049613</v>
+        <v>0.175074930953469</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2009566712443104</v>
+        <v>0.2012750678246268</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1387</v>
@@ -4737,19 +4737,19 @@
         <v>765554</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>726487</v>
+        <v>727666</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>803043</v>
+        <v>803728</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2054790991502289</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1949934914415642</v>
+        <v>0.1953098117652744</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2155413211258486</v>
+        <v>0.2157253151493718</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2243</v>
@@ -4758,19 +4758,19 @@
         <v>1426579</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1364806</v>
+        <v>1371261</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1488244</v>
+        <v>1485103</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1969196081195575</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1883926306945463</v>
+        <v>0.1892837424078118</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2054316577805045</v>
+        <v>0.2049980971419725</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2857748</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2811652</v>
+        <v>2810532</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2897241</v>
+        <v>2902724</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8121432377965898</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7990433287556894</v>
+        <v>0.7987249321753732</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8233667619950388</v>
+        <v>0.8249250690465308</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3961</v>
@@ -4808,19 +4808,19 @@
         <v>2960147</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2922658</v>
+        <v>2921973</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2999214</v>
+        <v>2998035</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.794520900849771</v>
+        <v>0.7945209008497711</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7844586788741518</v>
+        <v>0.7842746848506282</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8050065085584363</v>
+        <v>0.8046901882347263</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6467</v>
@@ -4829,19 +4829,19 @@
         <v>5817895</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5756230</v>
+        <v>5759371</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5879668</v>
+        <v>5873213</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8030803918804423</v>
+        <v>0.8030803918804426</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7945683422194957</v>
+        <v>0.7950019028580274</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8116073693054541</v>
+        <v>0.8107162575921881</v>
       </c>
     </row>
     <row r="15">
